--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2927356.695204405</v>
+        <v>2920339.680312695</v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +661,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>76.30144276124484</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>237.1298127151659</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553073</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>77.15919157187217</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,31 +861,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>171.9664138887665</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>133.9670174059953</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>331.8543383011195</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -913,7 +913,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,7 +949,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1110,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>50.05665370612845</v>
       </c>
       <c r="Y7" t="n">
-        <v>189.2971169515365</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>7.087384186827832</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>249.4237682275145</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1293,22 +1293,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544503</v>
       </c>
       <c r="D10" t="n">
-        <v>34.10050473850211</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274029</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1539,13 +1539,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>28.0388904293851</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,10 +1782,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>112.7232111520255</v>
       </c>
       <c r="I16" t="n">
-        <v>19.14789790932302</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.5229983365872</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1897,7 +1897,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -2010,10 +2010,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2022,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>191.0719134448764</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>156.2700357217226</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002181</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>161.9325425001323</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2535,13 +2535,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>181.9834643821983</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>144.2242450710215</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>66.54061335012049</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>52.25722329313179</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>38.38968782059721</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>95.02525064967696</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,7 +3435,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151921</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>52.19551414248308</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722613</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3556,10 +3556,10 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750042</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>121.9872482761752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>94.27984345364941</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>49.38162151975479</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>92.68295534689703</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4194,7 +4194,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>161.1706059301403</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1704.018810322078</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>864.8978292757404</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>446.9340211739272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2443.387305656314</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2443.387305656314</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2090.6186503862</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.6186503862</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.6186503862</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4391,16 +4391,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.8815591656899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>131.8815591656899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>131.8815591656899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>131.8815591656899</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U4" t="n">
-        <v>352.67413830922</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V4" t="n">
-        <v>352.67413830922</v>
+        <v>525.0086166875648</v>
       </c>
       <c r="W4" t="n">
-        <v>352.67413830922</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="X4" t="n">
-        <v>352.67413830922</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y4" t="n">
-        <v>131.8815591656899</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>923.1150787952338</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>768.2839875620907</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>410.0182889553402</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4597,22 +4597,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>1309.714918859356</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>1309.714918859356</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>1309.714918859356</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>290.8087152951862</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>290.8087152951862</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="W7" t="n">
-        <v>290.8087152951862</v>
+        <v>325.2978374347314</v>
       </c>
       <c r="X7" t="n">
-        <v>290.8087152951862</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1370.712364606781</v>
+        <v>2310.549250954099</v>
       </c>
       <c r="C8" t="n">
-        <v>1370.712364606781</v>
+        <v>1941.586734013687</v>
       </c>
       <c r="D8" t="n">
-        <v>1363.553390680693</v>
+        <v>1583.321035406937</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>1197.532782808692</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>786.5468780190847</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>534.6036777892721</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>207.4089578252749</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2147.451536646715</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>2147.451536646715</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X8" t="n">
-        <v>2147.451536646715</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="Y8" t="n">
-        <v>1757.312204670903</v>
+        <v>2697.149091018221</v>
       </c>
     </row>
     <row r="9">
@@ -4874,34 +4874,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>266.2060027642003</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>670.821920859872</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417903</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517454</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537798</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.1363086691495</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="C10" t="n">
-        <v>246.1363086691495</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750364</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="V10" t="n">
-        <v>246.1363086691495</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="W10" t="n">
-        <v>246.1363086691495</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="X10" t="n">
-        <v>246.1363086691495</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Y10" t="n">
-        <v>246.1363086691495</v>
+        <v>728.1289842064339</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155882</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5074,19 +5074,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>796.3635653766202</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1103.683698656582</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>416.5712828402495</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C13" t="n">
-        <v>247.6350999123426</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="D13" t="n">
-        <v>247.6350999123426</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="E13" t="n">
-        <v>247.6350999123426</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="F13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1470.594159013069</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1470.594159013069</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1470.594159013069</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1181.465520226627</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>926.7810320207402</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>637.3638619837795</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>637.3638619837795</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>416.5712828402495</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>730.7156349400711</v>
+        <v>526.9050513325935</v>
       </c>
       <c r="C16" t="n">
-        <v>561.7794520121643</v>
+        <v>357.9688684046866</v>
       </c>
       <c r="D16" t="n">
-        <v>561.7794520121643</v>
+        <v>357.9688684046866</v>
       </c>
       <c r="E16" t="n">
-        <v>413.8663584297711</v>
+        <v>357.9688684046866</v>
       </c>
       <c r="F16" t="n">
-        <v>266.9764109318608</v>
+        <v>211.0789209067763</v>
       </c>
       <c r="G16" t="n">
-        <v>266.9764109318608</v>
+        <v>211.0789209067763</v>
       </c>
       <c r="H16" t="n">
-        <v>116.558402479804</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W16" t="n">
-        <v>1133.156678913841</v>
+        <v>754.8946022306109</v>
       </c>
       <c r="X16" t="n">
-        <v>1133.156678913841</v>
+        <v>526.9050513325935</v>
       </c>
       <c r="Y16" t="n">
-        <v>912.3640997703109</v>
+        <v>526.9050513325935</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,40 +5500,40 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>218.4033802145346</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>367.4730644165944</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>614.2381923230585</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M18" t="n">
-        <v>921.55832560302</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N18" t="n">
-        <v>1725.969903867171</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O18" t="n">
-        <v>2005.509969085868</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>672.4909068465487</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C19" t="n">
-        <v>503.5547239186418</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D19" t="n">
-        <v>503.5547239186418</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5703,22 +5703,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1082.128922574806</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V19" t="n">
-        <v>1082.128922574806</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W19" t="n">
-        <v>1082.128922574806</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X19" t="n">
-        <v>854.1393716767884</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y19" t="n">
-        <v>854.1393716767884</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003442</v>
@@ -5740,22 +5740,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805457</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5770,34 +5770,34 @@
         <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5840,13 +5840,13 @@
         <v>901.6749225845922</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.043068977054</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N21" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P21" t="n">
         <v>2536.440602918915</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4703.006052083259</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T22" t="n">
-        <v>4703.006052083259</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U22" t="n">
-        <v>4703.006052083259</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V22" t="n">
-        <v>4448.321563877373</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W22" t="n">
-        <v>4158.904393840412</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X22" t="n">
-        <v>4158.904393840412</v>
+        <v>213.9110074201021</v>
       </c>
       <c r="Y22" t="n">
-        <v>3938.111814696882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,7 +5965,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
@@ -5974,67 +5974,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211724</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011341</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665167</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>678.2225136306378</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C25" t="n">
-        <v>509.2863307027309</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1335.348045810294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1335.348045810294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1335.348045810294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>1080.663557604408</v>
+        <v>1315.094589363763</v>
       </c>
       <c r="W25" t="n">
-        <v>1080.663557604408</v>
+        <v>1025.677419326802</v>
       </c>
       <c r="X25" t="n">
-        <v>1080.663557604408</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y25" t="n">
-        <v>859.8709784608775</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766204</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4015.911034827087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>4015.911034827087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>4015.911034827087</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3867.997941244694</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3721.107993746784</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.069157803799</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>4382.384669597912</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>4382.384669597912</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4382.384669597912</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>4161.592090454382</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,52 +6442,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231264</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,31 +6539,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1757.603879777667</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2037.143944996364</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>395.2468244550147</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C31" t="n">
-        <v>395.2468244550147</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D31" t="n">
-        <v>245.130185042679</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>1120.708416277583</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U31" t="n">
-        <v>831.5797774911413</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V31" t="n">
-        <v>576.8952892852544</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W31" t="n">
-        <v>576.8952892852544</v>
+        <v>696.5850465240057</v>
       </c>
       <c r="X31" t="n">
-        <v>576.8952892852544</v>
+        <v>468.5954956259884</v>
       </c>
       <c r="Y31" t="n">
-        <v>576.8952892852544</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003442</v>
@@ -6688,22 +6688,22 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805473</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6724,28 +6724,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M33" t="n">
-        <v>841.8631140141293</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1171.725741678162</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>1841.189502980822</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>599.7337779135439</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C34" t="n">
-        <v>430.797594985637</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D34" t="n">
-        <v>430.797594985637</v>
+        <v>392.0201325405894</v>
       </c>
       <c r="E34" t="n">
-        <v>282.8845014032439</v>
+        <v>244.1070389581963</v>
       </c>
       <c r="F34" t="n">
-        <v>135.9945539053336</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G34" t="n">
-        <v>135.9945539053336</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H34" t="n">
-        <v>135.9945539053336</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M34" t="n">
         <v>779.0639759471194</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U34" t="n">
-        <v>1075.210845262961</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V34" t="n">
-        <v>820.5263570570741</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W34" t="n">
-        <v>820.5263570570741</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>820.5263570570741</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y34" t="n">
-        <v>599.7337779135439</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7004,37 +7004,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L36" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M36" t="n">
-        <v>1595.645765494011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1925.508393158044</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>2205.048458376741</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3774.981524342492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>3606.045341414585</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4660.934562929845</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4371.805924143403</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>4117.121435937516</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>3827.704265900556</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>3774.981524342492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>3774.981524342492</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,16 +7153,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155894</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
@@ -7174,7 +7174,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7186,16 +7186,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7204,19 +7204,19 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7253,28 +7253,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>932.1883377003194</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1736.59991596447</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4073.312626376942</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>3904.376443449035</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>3756.463349866642</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014292</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>4860.854573014292</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>4606.170084808406</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>4606.170084808406</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>4378.180533910388</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>4254.961091207181</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514078</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,34 +7478,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>932.1883377003199</v>
+        <v>1595.645765494011</v>
       </c>
       <c r="N42" t="n">
-        <v>1736.599915964471</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O42" t="n">
-        <v>2016.139981183168</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>678.2225136306376</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="C43" t="n">
-        <v>509.2863307027308</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1403.684105453206</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1403.684105453206</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>1403.684105453206</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U43" t="n">
-        <v>1114.555466666764</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V43" t="n">
-        <v>859.8709784608774</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W43" t="n">
-        <v>859.8709784608774</v>
+        <v>441.9005583181194</v>
       </c>
       <c r="X43" t="n">
-        <v>859.8709784608774</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="Y43" t="n">
-        <v>859.8709784608774</v>
+        <v>392.0201325405893</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M45" t="n">
-        <v>1016.813592216476</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
-        <v>1346.676219880509</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O45" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>488.8659712700622</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C46" t="n">
-        <v>488.8659712700622</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D46" t="n">
-        <v>338.7493318577265</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>190.8362382753334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>190.8362382753334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>190.8362382753334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U46" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V46" t="n">
-        <v>1187.92115703528</v>
+        <v>1336.117678709276</v>
       </c>
       <c r="W46" t="n">
-        <v>898.5039869983193</v>
+        <v>1046.700508672316</v>
       </c>
       <c r="X46" t="n">
-        <v>670.514436100302</v>
+        <v>818.7109577742983</v>
       </c>
       <c r="Y46" t="n">
-        <v>670.514436100302</v>
+        <v>597.9183786307682</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8303,7 +8303,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>346.2692436516223</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270201</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719094</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747115</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8771,28 +8771,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.3376789165117</v>
       </c>
       <c r="O12" t="n">
-        <v>306.1147370139961</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9014,22 +9014,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>360.5026862907256</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>80.50021372615267</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9488,16 +9488,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>52.49733361305204</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>124.3400780863226</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>234.4116509503161</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>87.16935584025367</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,10 +10427,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>285.1031356539326</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720721</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10670,7 +10670,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>127.646125010065</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>91.23759968302039</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928307</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,31 +11138,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>91.23759968302113</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>127.6461250100645</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11375,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>176.7176547498455</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23427,13 +23427,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>26.93116351641913</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>81.92546197440768</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>36.19061721551058</v>
       </c>
       <c r="I16" t="n">
-        <v>91.27134755494896</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23898,10 +23898,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>87.77261239840718</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23910,7 +23910,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,22 +23943,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>95.16543895370091</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>110.419245464272</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>41.65077426188068</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>103.0576765518767</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>35.98826748347096</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -24423,13 +24423,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>70.15417894162968</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.60773511091583</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>155.0069477082687</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>166.327430058963</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>72.02955764367476</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>130.6844047393602</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,7 +25323,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>173.5141412465541</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>96.5974050759196</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>15.68450895014338</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>176.3280338692824</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>56.23087302063909</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -26082,7 +26082,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>90.96703739368775</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="9">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.3716448199</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448197</v>
       </c>
       <c r="E2" t="n">
-        <v>606095.0425934481</v>
+        <v>606095.0425934482</v>
       </c>
       <c r="F2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="G2" t="n">
+        <v>606095.0425934482</v>
+      </c>
+      <c r="H2" t="n">
+        <v>606095.0425934485</v>
+      </c>
+      <c r="I2" t="n">
         <v>606095.0425934483</v>
       </c>
-      <c r="H2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="L2" t="n">
         <v>606095.0425934487</v>
       </c>
-      <c r="K2" t="n">
-        <v>606095.0425934485</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="N2" t="n">
+        <v>606095.0425934484</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934488</v>
       </c>
-      <c r="M2" t="n">
-        <v>606095.0425934484</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>606095.0425934487</v>
-      </c>
-      <c r="O2" t="n">
-        <v>606095.0425934482</v>
-      </c>
-      <c r="P2" t="n">
-        <v>606095.0425934483</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,19 +26386,19 @@
         <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.43876002059551e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159208</v>
+        <v>147917.0487159209</v>
       </c>
       <c r="E4" t="n">
+        <v>7916.731656007506</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7916.731656007535</v>
+      </c>
+      <c r="G4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7916.731656007525</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="L4" t="n">
+        <v>7916.731656007414</v>
+      </c>
+      <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="G4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="H4" t="n">
-        <v>7916.731656007414</v>
-      </c>
-      <c r="I4" t="n">
-        <v>7916.73165600741</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="O4" t="n">
+        <v>7916.73165600748</v>
+      </c>
+      <c r="P4" t="n">
         <v>7916.731656007481</v>
-      </c>
-      <c r="K4" t="n">
-        <v>7916.731656007482</v>
-      </c>
-      <c r="L4" t="n">
-        <v>7916.731656007483</v>
-      </c>
-      <c r="M4" t="n">
-        <v>7916.731656007481</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7916.731656007502</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7916.731656007484</v>
-      </c>
-      <c r="P4" t="n">
-        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
@@ -26484,25 +26484,25 @@
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871667</v>
       </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-184436.6343490551</v>
       </c>
       <c r="C6" t="n">
-        <v>405531.2448654893</v>
+        <v>405531.2448654895</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654892</v>
+        <v>405531.2448654898</v>
       </c>
       <c r="E6" t="n">
-        <v>-18969.05148817196</v>
+        <v>-19943.64274789409</v>
       </c>
       <c r="F6" t="n">
-        <v>506190.9849887243</v>
+        <v>505216.3937290026</v>
       </c>
       <c r="G6" t="n">
-        <v>506190.9849887242</v>
+        <v>505216.3937290024</v>
       </c>
       <c r="H6" t="n">
-        <v>506190.984988724</v>
+        <v>505216.3937290027</v>
       </c>
       <c r="I6" t="n">
-        <v>506190.9849887243</v>
+        <v>505216.3937290027</v>
       </c>
       <c r="J6" t="n">
-        <v>329767.7657961317</v>
+        <v>328793.1745364097</v>
       </c>
       <c r="K6" t="n">
-        <v>506190.9849887244</v>
+        <v>505216.3937290027</v>
       </c>
       <c r="L6" t="n">
-        <v>506190.9849887246</v>
+        <v>505216.3937290026</v>
       </c>
       <c r="M6" t="n">
-        <v>371389.9697548873</v>
+        <v>370415.3784951657</v>
       </c>
       <c r="N6" t="n">
-        <v>506190.9849887246</v>
+        <v>505216.3937290027</v>
       </c>
       <c r="O6" t="n">
-        <v>506190.9849887241</v>
+        <v>505216.393729003</v>
       </c>
       <c r="P6" t="n">
-        <v>506190.9849887242</v>
+        <v>505216.3937290029</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26743,13 +26743,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26758,28 +26758,28 @@
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26810,7 +26810,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990171</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>288.9714490097627</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>86.79296004919127</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,22 +27426,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27548,7 +27548,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>68.26185645105907</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>80.17122943506155</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>231.3058743650123</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>50.07603177114225</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27830,19 +27830,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>175.6530016829087</v>
       </c>
       <c r="Y7" t="n">
-        <v>29.28753640055831</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>347.5956574338551</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>164.3604017932805</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,28 +28013,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831828</v>
       </c>
       <c r="D10" t="n">
-        <v>114.5149682797102</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4.820566934132988e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28547,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>3.758651504979533e-12</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29094,7 +29094,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>-1.620037437533028e-12</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.534772309241816e-12</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>4.820566934132988e-13</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396469</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
         <v>34.18755300444946</v>
@@ -33432,13 +33432,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647497</v>
@@ -33453,7 +33453,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33508,7 +33508,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
         <v>464.5362854813463</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,10 +33569,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
         <v>45.03122946298631</v>
@@ -33581,10 +33581,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
         <v>234.725964217132</v>
@@ -33593,7 +33593,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33605,13 +33605,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
         <v>34.18755300444946</v>
@@ -33669,13 +33669,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647497</v>
@@ -33690,7 +33690,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33745,7 +33745,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
         <v>464.5362854813463</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,10 +33806,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
         <v>45.03122946298631</v>
@@ -33818,10 +33818,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
         <v>234.725964217132</v>
@@ -33830,7 +33830,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33842,13 +33842,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35023,7 +35023,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>214.4070918624604</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O12" t="n">
-        <v>588.4784392551043</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>670.9270633411919</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>122.4103926810593</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
         <v>150.5754385879392</v>
@@ -35971,7 +35971,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N18" t="n">
         <v>812.5369477415663</v>
@@ -35980,13 +35980,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
         <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36208,16 +36208,16 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N21" t="n">
-        <v>385.691907011065</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>331.4334930178474</v>
       </c>
       <c r="Q21" t="n">
         <v>88.01303278507416</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>516.7753531914243</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>406.4618263286126</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>294.2627707717784</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37080,19 +37080,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560244</v>
@@ -37159,16 +37159,16 @@
         <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>492.1965505854573</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
@@ -37235,7 +37235,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N34" t="n">
         <v>273.2768778056037</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415063</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37317,19 +37317,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>334.7395399415897</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
@@ -37472,7 +37472,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N37" t="n">
         <v>273.2768778056037</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>401.6619767334868</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.32965022211</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>401.6619767334874</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>460.8406984080775</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M45" t="n">
-        <v>487.1420318003117</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_1_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2920339.680312695</v>
+        <v>2925278.943161726</v>
       </c>
     </row>
     <row r="7">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>237.1298127151659</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>27.37813690257445</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>171.9664138887665</v>
+        <v>162.3364906735232</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>331.8543383011195</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>216.6993815150876</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>50.05665370612845</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>5.983388191320265</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>249.4237682275145</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544503</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>28.51033041214387</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274029</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,16 +1530,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>203.6596013163767</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385022</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>112.7232111520255</v>
+        <v>70.90294072354719</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.5229983365872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U17" t="n">
         <v>251.078595249801</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="20">
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>206.806426921486</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002181</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>181.9834643821983</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113176</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3009,7 +3009,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>52.25722329313179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3046,10 +3046,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,25 +3237,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>95.02525064967696</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>203.8435192151921</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>17.44253342356031</v>
       </c>
     </row>
     <row r="38">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750042</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,22 +3951,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>195.2576055935789</v>
       </c>
       <c r="X43" t="n">
-        <v>49.38162151975479</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>161.1706059301403</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.883734065348</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.883734065348</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1275.883734065348</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>864.8978292757404</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>446.9340211739272</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2669.494407278248</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2669.494407278248</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2669.494407278248</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2415.73262191634</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2084.669734572769</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1731.901079302655</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1731.901079302655</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4409,31 +4409,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>525.0086166875648</v>
+        <v>564.1527310008552</v>
       </c>
       <c r="W4" t="n">
-        <v>235.5914466506042</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>235.5914466506042</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>768.2839875620907</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>768.2839875620907</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>410.0182889553402</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4573,13 +4573,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W5" t="n">
-        <v>1528.349585887292</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X5" t="n">
-        <v>1154.883827626212</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y5" t="n">
-        <v>1154.883827626212</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4749,25 +4749,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>579.9823256406182</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>579.9823256406182</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="V7" t="n">
-        <v>325.2978374347314</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="W7" t="n">
-        <v>325.2978374347314</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
         <v>53.94298182036445</v>
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2310.549250954099</v>
+        <v>808.0839286340183</v>
       </c>
       <c r="C8" t="n">
-        <v>1941.586734013687</v>
+        <v>439.1214116936066</v>
       </c>
       <c r="D8" t="n">
-        <v>1583.321035406937</v>
+        <v>80.8557130868561</v>
       </c>
       <c r="E8" t="n">
-        <v>1197.532782808692</v>
+        <v>74.81188663097704</v>
       </c>
       <c r="F8" t="n">
-        <v>786.5468780190847</v>
+        <v>67.86638588177357</v>
       </c>
       <c r="G8" t="n">
-        <v>534.6036777892721</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252749</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018221</v>
+        <v>2311.057514205146</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018221</v>
+        <v>1958.288858935032</v>
       </c>
       <c r="X8" t="n">
-        <v>2697.149091018221</v>
+        <v>1584.823100673952</v>
       </c>
       <c r="Y8" t="n">
-        <v>2697.149091018221</v>
+        <v>1194.68376869814</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036442</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027642003</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>670.821920859872</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417903</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517454</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537798</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
         <v>2525.076107152626</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064339</v>
+        <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799423</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477908</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658207</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502497</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594897</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064339</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064339</v>
+        <v>699.3306706588146</v>
       </c>
     </row>
     <row r="11">
@@ -5029,22 +5029,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155882</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805463</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,13 +5053,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5074,16 +5074,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>216.9038434870658</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="C13" t="n">
-        <v>216.9038434870658</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D13" t="n">
-        <v>216.9038434870658</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E13" t="n">
-        <v>216.9038434870658</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028584</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655738</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286132</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305959</v>
+        <v>525.6009593486384</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870658</v>
+        <v>525.6009593486384</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5263,10 +5263,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,7 +5278,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514082</v>
@@ -5299,7 +5299,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014292</v>
@@ -5314,16 +5314,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>526.9050513325935</v>
+        <v>337.0115451844523</v>
       </c>
       <c r="C16" t="n">
-        <v>357.9688684046866</v>
+        <v>337.0115451844523</v>
       </c>
       <c r="D16" t="n">
-        <v>357.9688684046866</v>
+        <v>337.0115451844523</v>
       </c>
       <c r="E16" t="n">
-        <v>357.9688684046866</v>
+        <v>337.0115451844523</v>
       </c>
       <c r="F16" t="n">
-        <v>211.0789209067763</v>
+        <v>337.0115451844523</v>
       </c>
       <c r="G16" t="n">
-        <v>211.0789209067763</v>
+        <v>168.8362235042729</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028584</v>
@@ -5466,22 +5466,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>1044.311772267568</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>754.8946022306109</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>526.9050513325935</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y16" t="n">
-        <v>526.9050513325935</v>
+        <v>337.0115451844523</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
@@ -5515,16 +5515,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1244.231782352015</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>954.8146123150548</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>726.8250614170374</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y19" t="n">
-        <v>506.0324822735073</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5767,7 +5767,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5776,28 +5776,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,40 +5819,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,31 +5928,31 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347409</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609669</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>731.31772835508</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>441.9005583181194</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201021</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
         <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6007,34 +6007,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2208.321444831246</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>1315.094589363763</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>1025.677419326802</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>797.6878684287846</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
@@ -6220,55 +6220,55 @@
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6302,7 +6302,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6314,7 +6314,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6426,10 +6426,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6487,28 +6487,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6539,7 +6539,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V31" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W31" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>468.5954956259884</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
@@ -6715,37 +6715,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,40 +6834,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>711.072954880832</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>392.0201325405894</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>244.1070389581963</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1209.499100520942</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1113.513998854602</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>892.7214197110717</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6952,37 +6952,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7013,25 +7013,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571611</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636253</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
         <v>2328.464088060424</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028587</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028587</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011507</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952638</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028587</v>
+        <v>526.9050513325897</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028587</v>
+        <v>509.2863307027308</v>
       </c>
     </row>
     <row r="38">
@@ -7153,28 +7153,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514085</v>
@@ -7186,7 +7186,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2317.834075963124</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,16 +7350,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
         <v>1158.436939387592</v>
@@ -7399,13 +7399,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
@@ -7420,28 +7420,28 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1595.645765494011</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
         <v>2051.878056918008</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>392.0201325405893</v>
+        <v>416.5712828402495</v>
       </c>
       <c r="C43" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>392.0201325405893</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>244.1070389581962</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347409</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609669</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V43" t="n">
-        <v>731.31772835508</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W43" t="n">
-        <v>441.9005583181194</v>
+        <v>1047.001877712037</v>
       </c>
       <c r="X43" t="n">
-        <v>392.0201325405893</v>
+        <v>819.0123268140193</v>
       </c>
       <c r="Y43" t="n">
-        <v>392.0201325405893</v>
+        <v>598.2197476704891</v>
       </c>
     </row>
     <row r="44">
@@ -7627,52 +7627,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7724,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557903</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>1336.117678709276</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>1046.700508672316</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>818.7109577742983</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>597.9183786307682</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270201</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719094</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451757</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8768,31 +8768,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>34.78428385445218</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>124.3400780863226</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,13 +9716,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>124.3400780863232</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776744</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208061</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11138,19 +11138,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>127.6461250100645</v>
+        <v>423.3376789165115</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208061</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23418,16 +23418,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>26.93116351641913</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23436,7 +23436,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>82.86339702021428</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>36.19061721551058</v>
+        <v>78.01088764398894</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>87.77261239840718</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>75.26883114644332</v>
       </c>
     </row>
     <row r="20">
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>14.74113413690327</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518767</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24414,16 +24414,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>70.15417894162968</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24663,7 +24663,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>82.39383318338565</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24888,7 +24888,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>166.327430058963</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -25125,25 +25125,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>130.6844047393602</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>82.39383318338523</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>201.1421199285345</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338503</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25839,22 +25839,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>91.26539274301209</v>
       </c>
       <c r="X43" t="n">
-        <v>176.3280338692824</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26073,16 +26073,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>90.96703739368775</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>769635.604453964</v>
+        <v>769635.6044539642</v>
       </c>
     </row>
     <row r="8">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>769635.6044539642</v>
+        <v>769635.604453964</v>
       </c>
     </row>
     <row r="16">
@@ -26316,46 +26316,46 @@
         <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="D2" t="n">
         <v>636307.3716448199</v>
       </c>
-      <c r="D2" t="n">
-        <v>636307.3716448197</v>
-      </c>
       <c r="E2" t="n">
-        <v>606095.0425934482</v>
+        <v>606095.0425934483</v>
       </c>
       <c r="F2" t="n">
+        <v>606095.0425934483</v>
+      </c>
+      <c r="G2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="G2" t="n">
-        <v>606095.0425934482</v>
-      </c>
       <c r="H2" t="n">
-        <v>606095.0425934485</v>
+        <v>606095.0425934487</v>
       </c>
       <c r="I2" t="n">
-        <v>606095.0425934483</v>
+        <v>606095.0425934484</v>
       </c>
       <c r="J2" t="n">
         <v>606095.0425934484</v>
       </c>
       <c r="K2" t="n">
-        <v>606095.0425934484</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="L2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934485</v>
       </c>
       <c r="M2" t="n">
         <v>606095.0425934487</v>
       </c>
       <c r="N2" t="n">
+        <v>606095.0425934487</v>
+      </c>
+      <c r="O2" t="n">
         <v>606095.0425934484</v>
       </c>
-      <c r="O2" t="n">
-        <v>606095.0425934488</v>
-      </c>
       <c r="P2" t="n">
-        <v>606095.0425934487</v>
+        <v>606095.0425934484</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.434074986013002e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.43876002059551e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,16 +26420,16 @@
         <v>147917.0487159209</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007506</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007535</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="G4" t="n">
         <v>7916.731656007483</v>
@@ -26438,28 +26438,28 @@
         <v>7916.731656007484</v>
       </c>
       <c r="I4" t="n">
+        <v>7916.731656007483</v>
+      </c>
+      <c r="J4" t="n">
         <v>7916.731656007484</v>
-      </c>
-      <c r="J4" t="n">
-        <v>7916.731656007525</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007484</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007414</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="M4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
+        <v>7916.731656007484</v>
+      </c>
+      <c r="O4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="O4" t="n">
-        <v>7916.73165600748</v>
-      </c>
       <c r="P4" t="n">
-        <v>7916.731656007481</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26493,16 +26493,16 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
@@ -26511,7 +26511,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-184436.6343490551</v>
       </c>
       <c r="C6" t="n">
-        <v>405531.2448654895</v>
+        <v>405531.2448654893</v>
       </c>
       <c r="D6" t="n">
-        <v>405531.2448654898</v>
+        <v>405531.2448654894</v>
       </c>
       <c r="E6" t="n">
-        <v>-19943.64274789409</v>
+        <v>-19066.51061414389</v>
       </c>
       <c r="F6" t="n">
-        <v>505216.3937290026</v>
+        <v>506093.5258627521</v>
       </c>
       <c r="G6" t="n">
-        <v>505216.3937290024</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="H6" t="n">
-        <v>505216.3937290027</v>
+        <v>506093.5258627524</v>
       </c>
       <c r="I6" t="n">
-        <v>505216.3937290027</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="J6" t="n">
-        <v>328793.1745364097</v>
+        <v>329670.3066701592</v>
       </c>
       <c r="K6" t="n">
-        <v>505216.3937290027</v>
+        <v>506093.5258627523</v>
       </c>
       <c r="L6" t="n">
-        <v>505216.3937290026</v>
+        <v>506093.5258627523</v>
       </c>
       <c r="M6" t="n">
-        <v>370415.3784951657</v>
+        <v>371292.5106289153</v>
       </c>
       <c r="N6" t="n">
-        <v>505216.3937290027</v>
+        <v>506093.5258627524</v>
       </c>
       <c r="O6" t="n">
-        <v>505216.393729003</v>
+        <v>506093.5258627522</v>
       </c>
       <c r="P6" t="n">
-        <v>505216.3937290029</v>
+        <v>506093.5258627522</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26743,43 +26743,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="K3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="L3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="M3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="N3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="O3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="P3" t="n">
         <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="M3" t="n">
-        <v>830.3824054541005</v>
-      </c>
-      <c r="N3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="O3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="P3" t="n">
-        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26819,7 +26819,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,16 +27387,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>86.79296004919127</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>27.10026567223726</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27596,7 +27596,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>80.17122943506155</v>
+        <v>89.80115265030477</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.07603177114225</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>69.58249272689014</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>175.6530016829087</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>375.9469818809415</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>164.3604017932805</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831828</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,16 +28025,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853704</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491435</v>
+        <v>0.6124195427704038</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.820566934132988e-13</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28547,7 +28547,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>3.758651504979533e-12</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -29283,7 +29283,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29766,7 +29766,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554461</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396469</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736698</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813573</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33423,37 +33423,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33496,31 +33496,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33529,7 +33529,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33660,37 +33660,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33733,31 +33733,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33766,7 +33766,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,7 +33888,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33897,31 +33897,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33970,31 +33970,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,7 +34061,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,7 +34125,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,31 +34134,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34207,31 +34207,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,7 +34298,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181309</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624604</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338901</v>
+        <v>439.8839133355125</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36126,25 +36126,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>331.4334930178474</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>331.4334930178478</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,19 +37226,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37247,7 +37247,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953156</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091992</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,19 +37463,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37484,7 +37484,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,25 +37548,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37639,13 +37639,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523309</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,19 +37700,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37721,7 +37721,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37785,25 +37785,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>460.8406984080775</v>
+        <v>756.5322523145245</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523309</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
